--- a/MainTop/20.08.2024/макс 10 дней/макс 10 дней с 10.08.2024 по 20.08.2024/спрос_20-8-2024 макс 10 дней с 10-8-2024 по 20-8-2024_sorted.xlsx
+++ b/MainTop/20.08.2024/макс 10 дней/макс 10 дней с 10.08.2024 по 20.08.2024/спрос_20-8-2024 макс 10 дней с 10-8-2024 по 20-8-2024_sorted.xlsx
@@ -381,21 +381,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L64" activeCellId="0" sqref="L64"/>
+      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>11</v>
       </c>
@@ -482,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -540,7 +540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
@@ -569,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>16</v>
       </c>
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
@@ -656,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>19</v>
       </c>
@@ -714,7 +714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
@@ -743,7 +743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>21</v>
       </c>
@@ -772,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
@@ -801,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
@@ -830,7 +830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>24</v>
       </c>
@@ -859,7 +859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>25</v>
       </c>
@@ -888,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>26</v>
       </c>
@@ -917,7 +917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>27</v>
       </c>
@@ -946,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>28</v>
       </c>
@@ -975,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>29</v>
       </c>
